--- a/Cronograma_PowerTech.xlsx
+++ b/Cronograma_PowerTech.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fatec\4° Semestre\DIP IV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A391EC-7668-4635-AB86-280670277349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0193BA-2BE1-40E9-909F-63C3D3CDA222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="POUaYgOzkETYaTx8DCUCUonzAPrIIpI8yqv3K7Chba8zoF0cx58uhHTJ1+fZdGNu2v/fo3tfufX8dUGUP+/K5g==" workbookSaltValue="HsQB6v3MyJ0opdXkbE64sg==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{D092B2C5-C0BC-4090-8CB0-F593CB92AA10}"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
   <si>
     <t>Tarefa</t>
   </si>
@@ -62,18 +62,12 @@
     <t>Ordem</t>
   </si>
   <si>
-    <t>Não iniciado</t>
-  </si>
-  <si>
     <t>Início do Projeto</t>
   </si>
   <si>
     <t>Progresso</t>
   </si>
   <si>
-    <t>Iniciado</t>
-  </si>
-  <si>
     <t>Em andamento</t>
   </si>
   <si>
@@ -95,12 +89,6 @@
     <t>Semana (Display)</t>
   </si>
   <si>
-    <t>Subtarefa 3.1 - XXXXXXXXXXXXXXX</t>
-  </si>
-  <si>
-    <t>Subtarefa 3.2 - XXXXXXXXXXXXXXX</t>
-  </si>
-  <si>
     <t>CNC ROUTER</t>
   </si>
   <si>
@@ -140,9 +128,6 @@
     <t>Subtarefa 2.3 - Projeto eletrônico</t>
   </si>
   <si>
-    <t>Subtarefa 1.6 - Apresentação</t>
-  </si>
-  <si>
     <t>Subtarefa 2.4 - Gestão do projeto</t>
   </si>
   <si>
@@ -150,6 +135,120 @@
   </si>
   <si>
     <t>Tarefa 3 - 3 Sprint</t>
+  </si>
+  <si>
+    <t>Subtarefa 3.1 - Montagem eletro/elettrônica</t>
+  </si>
+  <si>
+    <t>Subtarefa 3.2 - Montagem estrutura</t>
+  </si>
+  <si>
+    <t>Subtarefa 3.3 - Desenvolvimento da proteção</t>
+  </si>
+  <si>
+    <t>Tarefa 4 - 4 Sprint</t>
+  </si>
+  <si>
+    <t>Subtarefa 3.7 - Apresentação</t>
+  </si>
+  <si>
+    <t>Subtarefa 3.2.1 - Montagem motor x</t>
+  </si>
+  <si>
+    <t>Subtarefa 3.2.1 - Montagem eixo y</t>
+  </si>
+  <si>
+    <t>Concluido</t>
+  </si>
+  <si>
+    <t>Em espera</t>
+  </si>
+  <si>
+    <t>Equipe</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Bruno/Jorge</t>
+  </si>
+  <si>
+    <t>Subtarefa 3.3 - Cabeçote</t>
+  </si>
+  <si>
+    <t>Subtarefa 3.3.1 - Projeto do Cabeçote</t>
+  </si>
+  <si>
+    <t>Subtarefa 3.3.2 - Impressão do Cabeçote</t>
+  </si>
+  <si>
+    <t>Subtarefa 3.3.2 - Montagem do Cabeçote</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Everton/Evandro</t>
+  </si>
+  <si>
+    <t>Evandro</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Subtarefa 3.4 - Compras</t>
+  </si>
+  <si>
+    <t>Subtarefa 3.4.1 - Compra do perfil (mesa)</t>
+  </si>
+  <si>
+    <t>Subtarefa 3.4.2 - Compra de fixação</t>
+  </si>
+  <si>
+    <t>Subtarefa 3.4.3 - Compra de Rolamento</t>
+  </si>
+  <si>
+    <t>Subtarefa 3.4.4 - Compra Suporte Nema 17</t>
+  </si>
+  <si>
+    <t>Subtarefa 3.4.5 - Compra Pilow Block</t>
+  </si>
+  <si>
+    <t>Subtarefa 3.6 - Documentação</t>
+  </si>
+  <si>
+    <t>Subtarefa 4.1 - Manual de Operação</t>
+  </si>
+  <si>
+    <t>Subtarefa 4.1 - Manual de Manutenção</t>
+  </si>
+  <si>
+    <t>Subtarefa 4.1 - Manual de Fabricação</t>
+  </si>
+  <si>
+    <t>Subtarefa 4.1 - Motagem Elétrica</t>
+  </si>
+  <si>
+    <t>Subtarefa 4.1 - Desenvolvimento proteção</t>
+  </si>
+  <si>
+    <t>Subtarefa 4.1 - Teste</t>
+  </si>
+  <si>
+    <t>Subtarefa 4.1 - Relatório Final</t>
+  </si>
+  <si>
+    <t>Subtarefa 4.1 - Apresentação Final</t>
+  </si>
+  <si>
+    <t>Bruno/Evandro</t>
+  </si>
+  <si>
+    <t>Subtarefa 4.1 - Fabricação da proteção</t>
   </si>
 </sst>
 </file>
@@ -275,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -346,15 +445,6 @@
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -454,17 +544,17 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -596,7 +686,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$G$2" horiz="1" max="100" page="0" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="22" fmlaLink="$G$2" horiz="1" max="100" page="0" val="11"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -669,7 +759,7 @@
         <xdr:cNvPr id="4" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D90275-AE92-D774-C25C-7F0ABF0BB334}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1003,18 +1093,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:BF22"/>
+  <dimension ref="A2:BF46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -1029,17 +1119,17 @@
   <sheetData>
     <row r="2" spans="1:58" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="29"/>
+      <c r="B2" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="31"/>
       <c r="G2" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
@@ -1087,79 +1177,79 @@
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="29"/>
+      <c r="B3" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="31"/>
       <c r="G3" s="9">
         <v>44805</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="30">
+      <c r="I3" s="29">
         <f>I4</f>
-        <v>44795</v>
-      </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30">
+        <v>44872</v>
+      </c>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29">
         <f>P4</f>
-        <v>44802</v>
-      </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30">
+        <v>44879</v>
+      </c>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29">
         <f>W4</f>
-        <v>44809</v>
-      </c>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30">
+        <v>44886</v>
+      </c>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29">
         <f>AD4</f>
-        <v>44816</v>
-      </c>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30">
+        <v>44893</v>
+      </c>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29">
         <f>AK4</f>
-        <v>44823</v>
-      </c>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="30">
+        <v>44900</v>
+      </c>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="29">
         <f>AR4</f>
-        <v>44830</v>
-      </c>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
+        <v>44907</v>
+      </c>
+      <c r="AS3" s="29"/>
+      <c r="AT3" s="29"/>
+      <c r="AU3" s="29"/>
+      <c r="AV3" s="29"/>
+      <c r="AW3" s="29"/>
+      <c r="AX3" s="29"/>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
@@ -1172,171 +1262,171 @@
       <c r="H4" s="6"/>
       <c r="I4" s="8">
         <f>G3-WEEKDAY(G3,1)+2+7*(G2-1)</f>
-        <v>44795</v>
+        <v>44872</v>
       </c>
       <c r="J4" s="8">
         <f>I4+1</f>
-        <v>44796</v>
+        <v>44873</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ref="K4:AX4" si="0">J4+1</f>
-        <v>44797</v>
+        <v>44874</v>
       </c>
       <c r="L4" s="8">
         <f t="shared" si="0"/>
-        <v>44798</v>
+        <v>44875</v>
       </c>
       <c r="M4" s="8">
         <f t="shared" si="0"/>
-        <v>44799</v>
+        <v>44876</v>
       </c>
       <c r="N4" s="8">
         <f t="shared" si="0"/>
-        <v>44800</v>
+        <v>44877</v>
       </c>
       <c r="O4" s="8">
         <f t="shared" si="0"/>
-        <v>44801</v>
+        <v>44878</v>
       </c>
       <c r="P4" s="8">
         <f t="shared" si="0"/>
-        <v>44802</v>
+        <v>44879</v>
       </c>
       <c r="Q4" s="8">
         <f t="shared" si="0"/>
-        <v>44803</v>
+        <v>44880</v>
       </c>
       <c r="R4" s="8">
         <f t="shared" si="0"/>
-        <v>44804</v>
+        <v>44881</v>
       </c>
       <c r="S4" s="8">
         <f t="shared" si="0"/>
-        <v>44805</v>
+        <v>44882</v>
       </c>
       <c r="T4" s="8">
         <f t="shared" si="0"/>
-        <v>44806</v>
+        <v>44883</v>
       </c>
       <c r="U4" s="8">
         <f t="shared" si="0"/>
-        <v>44807</v>
+        <v>44884</v>
       </c>
       <c r="V4" s="8">
         <f t="shared" si="0"/>
-        <v>44808</v>
+        <v>44885</v>
       </c>
       <c r="W4" s="8">
         <f t="shared" si="0"/>
-        <v>44809</v>
+        <v>44886</v>
       </c>
       <c r="X4" s="8">
         <f t="shared" si="0"/>
-        <v>44810</v>
+        <v>44887</v>
       </c>
       <c r="Y4" s="8">
         <f t="shared" si="0"/>
-        <v>44811</v>
+        <v>44888</v>
       </c>
       <c r="Z4" s="8">
         <f t="shared" si="0"/>
-        <v>44812</v>
+        <v>44889</v>
       </c>
       <c r="AA4" s="8">
         <f t="shared" si="0"/>
-        <v>44813</v>
+        <v>44890</v>
       </c>
       <c r="AB4" s="8">
         <f t="shared" si="0"/>
-        <v>44814</v>
+        <v>44891</v>
       </c>
       <c r="AC4" s="8">
         <f t="shared" si="0"/>
-        <v>44815</v>
+        <v>44892</v>
       </c>
       <c r="AD4" s="8">
         <f t="shared" si="0"/>
-        <v>44816</v>
+        <v>44893</v>
       </c>
       <c r="AE4" s="8">
         <f t="shared" si="0"/>
-        <v>44817</v>
+        <v>44894</v>
       </c>
       <c r="AF4" s="8">
         <f t="shared" si="0"/>
-        <v>44818</v>
+        <v>44895</v>
       </c>
       <c r="AG4" s="8">
         <f t="shared" si="0"/>
-        <v>44819</v>
+        <v>44896</v>
       </c>
       <c r="AH4" s="8">
         <f t="shared" si="0"/>
-        <v>44820</v>
+        <v>44897</v>
       </c>
       <c r="AI4" s="8">
         <f t="shared" si="0"/>
-        <v>44821</v>
+        <v>44898</v>
       </c>
       <c r="AJ4" s="8">
         <f t="shared" si="0"/>
-        <v>44822</v>
+        <v>44899</v>
       </c>
       <c r="AK4" s="8">
         <f t="shared" si="0"/>
-        <v>44823</v>
+        <v>44900</v>
       </c>
       <c r="AL4" s="8">
         <f t="shared" si="0"/>
-        <v>44824</v>
+        <v>44901</v>
       </c>
       <c r="AM4" s="8">
         <f t="shared" si="0"/>
-        <v>44825</v>
+        <v>44902</v>
       </c>
       <c r="AN4" s="8">
         <f t="shared" si="0"/>
-        <v>44826</v>
+        <v>44903</v>
       </c>
       <c r="AO4" s="8">
         <f t="shared" si="0"/>
-        <v>44827</v>
+        <v>44904</v>
       </c>
       <c r="AP4" s="8">
         <f t="shared" si="0"/>
-        <v>44828</v>
+        <v>44905</v>
       </c>
       <c r="AQ4" s="8">
         <f t="shared" si="0"/>
-        <v>44829</v>
+        <v>44906</v>
       </c>
       <c r="AR4" s="8">
         <f t="shared" si="0"/>
-        <v>44830</v>
+        <v>44907</v>
       </c>
       <c r="AS4" s="8">
         <f t="shared" si="0"/>
-        <v>44831</v>
+        <v>44908</v>
       </c>
       <c r="AT4" s="8">
         <f t="shared" si="0"/>
-        <v>44832</v>
+        <v>44909</v>
       </c>
       <c r="AU4" s="8">
         <f t="shared" si="0"/>
-        <v>44833</v>
+        <v>44910</v>
       </c>
       <c r="AV4" s="8">
         <f t="shared" si="0"/>
-        <v>44834</v>
+        <v>44911</v>
       </c>
       <c r="AW4" s="8">
         <f t="shared" si="0"/>
-        <v>44835</v>
+        <v>44912</v>
       </c>
       <c r="AX4" s="8">
         <f t="shared" si="0"/>
-        <v>44836</v>
+        <v>44913</v>
       </c>
       <c r="AY4" s="3"/>
       <c r="AZ4" s="3"/>
@@ -1370,7 +1460,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" s="5" t="str">
         <f>LEFT(TEXT(I4,"ddd"),1)</f>
@@ -1541,12 +1631,12 @@
         <v>d</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>1</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
@@ -1597,17 +1687,19 @@
       <c r="AW6" s="18"/>
       <c r="AX6" s="18"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>2</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="E7" s="15">
         <v>44798</v>
       </c>
@@ -1615,7 +1707,7 @@
         <v>44805</v>
       </c>
       <c r="G7" s="16">
-        <f t="shared" ref="G7:G21" si="37">IF(E7=0,0,F7-E7)</f>
+        <f t="shared" ref="G7:G20" si="37">IF(E7=0,0,F7-E7)</f>
         <v>7</v>
       </c>
       <c r="H7" s="17">
@@ -1663,17 +1755,19 @@
       <c r="AW7" s="20"/>
       <c r="AX7" s="20"/>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>3</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="E8" s="15">
         <v>44805</v>
       </c>
@@ -1730,17 +1824,19 @@
       <c r="AW8" s="20"/>
       <c r="AX8" s="20"/>
     </row>
-    <row r="9" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>4</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>41</v>
+      </c>
       <c r="E9" s="15">
         <v>44812</v>
       </c>
@@ -1797,17 +1893,19 @@
       <c r="AW9" s="20"/>
       <c r="AX9" s="20"/>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>5</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="E10" s="15">
         <v>44813</v>
       </c>
@@ -1815,7 +1913,7 @@
         <v>44813</v>
       </c>
       <c r="G10" s="16">
-        <f t="shared" ref="G10:G19" si="38">IF(E10=0,0,F10-E10)</f>
+        <f t="shared" ref="G10:G18" si="38">IF(E10=0,0,F10-E10)</f>
         <v>0</v>
       </c>
       <c r="H10" s="17">
@@ -1864,24 +1962,28 @@
       <c r="AW10" s="20"/>
       <c r="AX10" s="20"/>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
+    <row r="11" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>6</v>
+      </c>
       <c r="B11" s="19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="E11" s="15">
         <v>44798</v>
       </c>
       <c r="F11" s="15">
-        <v>44816</v>
+        <v>44893</v>
       </c>
       <c r="G11" s="16">
         <f t="shared" si="38"/>
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="H11" s="17">
         <v>0.1</v>
@@ -1929,28 +2031,19 @@
       <c r="AW11" s="20"/>
       <c r="AX11" s="20"/>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>10</v>
-      </c>
+    <row r="12" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>7</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="12"/>
       <c r="D12" s="13"/>
-      <c r="E12" s="15">
-        <v>44816</v>
-      </c>
-      <c r="F12" s="15">
-        <v>44816</v>
-      </c>
-      <c r="G12" s="16">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="17">
-        <v>1</v>
-      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
@@ -1994,19 +2087,32 @@
       <c r="AW12" s="20"/>
       <c r="AX12" s="20"/>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A13" s="26">
-        <v>6</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
+    <row r="13" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>8</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="15">
+        <v>44817</v>
+      </c>
+      <c r="F13" s="15">
+        <v>44820</v>
+      </c>
+      <c r="G13" s="16">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0.9</v>
+      </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
@@ -2050,27 +2156,31 @@
       <c r="AW13" s="20"/>
       <c r="AX13" s="20"/>
     </row>
-    <row r="14" spans="1:58" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
+    <row r="14" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10">
+        <v>9</v>
+      </c>
       <c r="B14" s="21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="E14" s="15">
-        <v>44817</v>
+        <v>44810</v>
       </c>
       <c r="F14" s="15">
-        <v>44820</v>
+        <v>44834</v>
       </c>
       <c r="G14" s="16">
         <f t="shared" si="38"/>
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H14" s="17">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -2115,29 +2225,31 @@
       <c r="AW14" s="20"/>
       <c r="AX14" s="20"/>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="E15" s="15">
-        <v>44810</v>
+        <v>44817</v>
       </c>
       <c r="F15" s="15">
         <v>44834</v>
       </c>
       <c r="G15" s="16">
         <f t="shared" si="38"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H15" s="17">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -2182,17 +2294,19 @@
       <c r="AW15" s="20"/>
       <c r="AX15" s="20"/>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>8</v>
+    <row r="16" spans="1:58" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>11</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="E16" s="15">
         <v>44817</v>
       </c>
@@ -2249,29 +2363,31 @@
       <c r="AW16" s="20"/>
       <c r="AX16" s="20"/>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>9</v>
+    <row r="17" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>12</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="E17" s="15">
-        <v>44817</v>
+        <v>44816</v>
       </c>
       <c r="F17" s="15">
-        <v>44834</v>
+        <v>44838</v>
       </c>
       <c r="G17" s="16">
         <f t="shared" si="38"/>
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H17" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="20"/>
@@ -2316,27 +2432,31 @@
       <c r="AW17" s="20"/>
       <c r="AX17" s="20"/>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+    <row r="18" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>13</v>
+      </c>
       <c r="B18" s="21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="E18" s="15">
-        <v>44816</v>
+        <v>44838</v>
       </c>
       <c r="F18" s="15">
         <v>44838</v>
       </c>
       <c r="G18" s="16">
         <f t="shared" si="38"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H18" s="17">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
@@ -2381,28 +2501,19 @@
       <c r="AW18" s="20"/>
       <c r="AX18" s="20"/>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>11</v>
-      </c>
+    <row r="19" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>14</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="12"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="15">
-        <v>44838</v>
-      </c>
-      <c r="F19" s="15">
-        <v>44838</v>
-      </c>
-      <c r="G19" s="16">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="17">
-        <v>0.98</v>
-      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
@@ -2446,19 +2557,32 @@
       <c r="AW19" s="20"/>
       <c r="AX19" s="20"/>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A20" s="26">
-        <v>13</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
+    <row r="20" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>15</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="14">
+        <v>44862</v>
+      </c>
+      <c r="F20" s="14">
+        <v>44887</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" si="37"/>
+        <v>25</v>
+      </c>
+      <c r="H20" s="17">
+        <v>0.7</v>
+      </c>
       <c r="I20" s="20"/>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -2502,30 +2626,26 @@
       <c r="AW20" s="20"/>
       <c r="AX20" s="20"/>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
-        <v>14</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="12"/>
       <c r="D21" s="13"/>
       <c r="E21" s="14">
-        <v>44862</v>
+        <v>44816</v>
       </c>
       <c r="F21" s="14">
-        <v>44887</v>
+        <v>44868</v>
       </c>
       <c r="G21" s="16">
-        <f t="shared" si="37"/>
-        <v>25</v>
-      </c>
-      <c r="H21" s="17">
-        <v>0.21</v>
-      </c>
+        <f>IF(E21=0,0,F21-E21)</f>
+        <v>52</v>
+      </c>
+      <c r="H21" s="17"/>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
@@ -2569,29 +2689,31 @@
       <c r="AW21" s="20"/>
       <c r="AX21" s="20"/>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
-        <v>15</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>19</v>
+    <row r="22" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>17</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>38</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="13"/>
+        <v>9</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>51</v>
+      </c>
       <c r="E22" s="14">
-        <v>44887</v>
+        <v>44838</v>
       </c>
       <c r="F22" s="14">
-        <v>44900</v>
+        <v>44868</v>
       </c>
       <c r="G22" s="16">
         <f>IF(E22=0,0,F22-E22)</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H22" s="17">
-        <v>0.14000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
@@ -2636,10 +2758,1631 @@
       <c r="AW22" s="20"/>
       <c r="AX22" s="20"/>
     </row>
+    <row r="23" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>18</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="14">
+        <v>44855</v>
+      </c>
+      <c r="F23" s="14">
+        <v>44868</v>
+      </c>
+      <c r="G23" s="16">
+        <f>IF(E23=0,0,F23-E23)</f>
+        <v>13</v>
+      </c>
+      <c r="H23" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="20"/>
+      <c r="AI23" s="20"/>
+      <c r="AJ23" s="20"/>
+      <c r="AK23" s="20"/>
+      <c r="AL23" s="20"/>
+      <c r="AM23" s="20"/>
+      <c r="AN23" s="20"/>
+      <c r="AO23" s="20"/>
+      <c r="AP23" s="20"/>
+      <c r="AQ23" s="20"/>
+      <c r="AR23" s="20"/>
+      <c r="AS23" s="20"/>
+      <c r="AT23" s="20"/>
+      <c r="AU23" s="20"/>
+      <c r="AV23" s="20"/>
+      <c r="AW23" s="20"/>
+      <c r="AX23" s="20"/>
+    </row>
+    <row r="24" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>19</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="16">
+        <f t="shared" ref="G24:G46" si="39">IF(E24=0,0,F24-E24)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="17"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+      <c r="AJ24" s="20"/>
+      <c r="AK24" s="20"/>
+      <c r="AL24" s="20"/>
+      <c r="AM24" s="20"/>
+      <c r="AN24" s="20"/>
+      <c r="AO24" s="20"/>
+      <c r="AP24" s="20"/>
+      <c r="AQ24" s="20"/>
+      <c r="AR24" s="20"/>
+      <c r="AS24" s="20"/>
+      <c r="AT24" s="20"/>
+      <c r="AU24" s="20"/>
+      <c r="AV24" s="20"/>
+      <c r="AW24" s="20"/>
+      <c r="AX24" s="20"/>
+    </row>
+    <row r="25" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>20</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="14">
+        <v>44856</v>
+      </c>
+      <c r="F25" s="14">
+        <v>44857</v>
+      </c>
+      <c r="G25" s="16">
+        <f>IF(E25=0,0,F25-E25)</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="20"/>
+      <c r="AJ25" s="20"/>
+      <c r="AK25" s="20"/>
+      <c r="AL25" s="20"/>
+      <c r="AM25" s="20"/>
+      <c r="AN25" s="20"/>
+      <c r="AO25" s="20"/>
+      <c r="AP25" s="20"/>
+      <c r="AQ25" s="20"/>
+      <c r="AR25" s="20"/>
+      <c r="AS25" s="20"/>
+      <c r="AT25" s="20"/>
+      <c r="AU25" s="20"/>
+      <c r="AV25" s="20"/>
+      <c r="AW25" s="20"/>
+      <c r="AX25" s="20"/>
+    </row>
+    <row r="26" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>21</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="14">
+        <v>44859</v>
+      </c>
+      <c r="F26" s="14">
+        <v>44860</v>
+      </c>
+      <c r="G26" s="16">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="17">
+        <v>0</v>
+      </c>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="20"/>
+      <c r="AD26" s="20"/>
+      <c r="AE26" s="20"/>
+      <c r="AF26" s="20"/>
+      <c r="AG26" s="20"/>
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="20"/>
+      <c r="AJ26" s="20"/>
+      <c r="AK26" s="20"/>
+      <c r="AL26" s="20"/>
+      <c r="AM26" s="20"/>
+      <c r="AN26" s="20"/>
+      <c r="AO26" s="20"/>
+      <c r="AP26" s="20"/>
+      <c r="AQ26" s="20"/>
+      <c r="AR26" s="20"/>
+      <c r="AS26" s="20"/>
+      <c r="AT26" s="20"/>
+      <c r="AU26" s="20"/>
+      <c r="AV26" s="20"/>
+      <c r="AW26" s="20"/>
+      <c r="AX26" s="20"/>
+    </row>
+    <row r="27" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>22</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="14">
+        <v>44861</v>
+      </c>
+      <c r="F27" s="14">
+        <v>44862</v>
+      </c>
+      <c r="G27" s="16">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="17">
+        <v>0</v>
+      </c>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="20"/>
+      <c r="AD27" s="20"/>
+      <c r="AE27" s="20"/>
+      <c r="AF27" s="20"/>
+      <c r="AG27" s="20"/>
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="20"/>
+      <c r="AJ27" s="20"/>
+      <c r="AK27" s="20"/>
+      <c r="AL27" s="20"/>
+      <c r="AM27" s="20"/>
+      <c r="AN27" s="20"/>
+      <c r="AO27" s="20"/>
+      <c r="AP27" s="20"/>
+      <c r="AQ27" s="20"/>
+      <c r="AR27" s="20"/>
+      <c r="AS27" s="20"/>
+      <c r="AT27" s="20"/>
+      <c r="AU27" s="20"/>
+      <c r="AV27" s="20"/>
+      <c r="AW27" s="20"/>
+      <c r="AX27" s="20"/>
+    </row>
+    <row r="28" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>23</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="14">
+        <v>44860</v>
+      </c>
+      <c r="F28" s="14">
+        <v>44861</v>
+      </c>
+      <c r="G28" s="16">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="17">
+        <v>0</v>
+      </c>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+      <c r="AK28" s="20"/>
+      <c r="AL28" s="20"/>
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="20"/>
+      <c r="AO28" s="20"/>
+      <c r="AP28" s="20"/>
+      <c r="AQ28" s="20"/>
+      <c r="AR28" s="20"/>
+      <c r="AS28" s="20"/>
+      <c r="AT28" s="20"/>
+      <c r="AU28" s="20"/>
+      <c r="AV28" s="20"/>
+      <c r="AW28" s="20"/>
+      <c r="AX28" s="20"/>
+    </row>
+    <row r="29" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="20"/>
+      <c r="AE29" s="20"/>
+      <c r="AF29" s="20"/>
+      <c r="AG29" s="20"/>
+      <c r="AH29" s="20"/>
+      <c r="AI29" s="20"/>
+      <c r="AJ29" s="20"/>
+      <c r="AK29" s="20"/>
+      <c r="AL29" s="20"/>
+      <c r="AM29" s="20"/>
+      <c r="AN29" s="20"/>
+      <c r="AO29" s="20"/>
+      <c r="AP29" s="20"/>
+      <c r="AQ29" s="20"/>
+      <c r="AR29" s="20"/>
+      <c r="AS29" s="20"/>
+      <c r="AT29" s="20"/>
+      <c r="AU29" s="20"/>
+      <c r="AV29" s="20"/>
+      <c r="AW29" s="20"/>
+      <c r="AX29" s="20"/>
+    </row>
+    <row r="30" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>24</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="14">
+        <v>44854</v>
+      </c>
+      <c r="F30" s="14">
+        <v>44858</v>
+      </c>
+      <c r="G30" s="16">
+        <f t="shared" si="39"/>
+        <v>4</v>
+      </c>
+      <c r="H30" s="17">
+        <v>1</v>
+      </c>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="20"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="20"/>
+      <c r="AG30" s="20"/>
+      <c r="AH30" s="20"/>
+      <c r="AI30" s="20"/>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="20"/>
+      <c r="AL30" s="20"/>
+      <c r="AM30" s="20"/>
+      <c r="AN30" s="20"/>
+      <c r="AO30" s="20"/>
+      <c r="AP30" s="20"/>
+      <c r="AQ30" s="20"/>
+      <c r="AR30" s="20"/>
+      <c r="AS30" s="20"/>
+      <c r="AT30" s="20"/>
+      <c r="AU30" s="20"/>
+      <c r="AV30" s="20"/>
+      <c r="AW30" s="20"/>
+      <c r="AX30" s="20"/>
+    </row>
+    <row r="31" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
+        <v>25</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="14">
+        <v>44844</v>
+      </c>
+      <c r="F31" s="14">
+        <v>44847</v>
+      </c>
+      <c r="G31" s="16">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+      <c r="H31" s="17">
+        <v>1</v>
+      </c>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="20"/>
+      <c r="AE31" s="20"/>
+      <c r="AF31" s="20"/>
+      <c r="AG31" s="20"/>
+      <c r="AH31" s="20"/>
+      <c r="AI31" s="20"/>
+      <c r="AJ31" s="20"/>
+      <c r="AK31" s="20"/>
+      <c r="AL31" s="20"/>
+      <c r="AM31" s="20"/>
+      <c r="AN31" s="20"/>
+      <c r="AO31" s="20"/>
+      <c r="AP31" s="20"/>
+      <c r="AQ31" s="20"/>
+      <c r="AR31" s="20"/>
+      <c r="AS31" s="20"/>
+      <c r="AT31" s="20"/>
+      <c r="AU31" s="20"/>
+      <c r="AV31" s="20"/>
+      <c r="AW31" s="20"/>
+      <c r="AX31" s="20"/>
+    </row>
+    <row r="32" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
+        <v>26</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="14">
+        <v>44844</v>
+      </c>
+      <c r="F32" s="14">
+        <v>44848</v>
+      </c>
+      <c r="G32" s="16">
+        <f t="shared" si="39"/>
+        <v>4</v>
+      </c>
+      <c r="H32" s="17">
+        <v>1</v>
+      </c>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="20"/>
+      <c r="AE32" s="20"/>
+      <c r="AF32" s="20"/>
+      <c r="AG32" s="20"/>
+      <c r="AH32" s="20"/>
+      <c r="AI32" s="20"/>
+      <c r="AJ32" s="20"/>
+      <c r="AK32" s="20"/>
+      <c r="AL32" s="20"/>
+      <c r="AM32" s="20"/>
+      <c r="AN32" s="20"/>
+      <c r="AO32" s="20"/>
+      <c r="AP32" s="20"/>
+      <c r="AQ32" s="20"/>
+      <c r="AR32" s="20"/>
+      <c r="AS32" s="20"/>
+      <c r="AT32" s="20"/>
+      <c r="AU32" s="20"/>
+      <c r="AV32" s="20"/>
+      <c r="AW32" s="20"/>
+      <c r="AX32" s="20"/>
+    </row>
+    <row r="33" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
+        <v>27</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="14">
+        <v>44858</v>
+      </c>
+      <c r="F33" s="14">
+        <v>44859</v>
+      </c>
+      <c r="G33" s="16">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="20"/>
+      <c r="AH33" s="20"/>
+      <c r="AI33" s="20"/>
+      <c r="AJ33" s="20"/>
+      <c r="AK33" s="20"/>
+      <c r="AL33" s="20"/>
+      <c r="AM33" s="20"/>
+      <c r="AN33" s="20"/>
+      <c r="AO33" s="20"/>
+      <c r="AP33" s="20"/>
+      <c r="AQ33" s="20"/>
+      <c r="AR33" s="20"/>
+      <c r="AS33" s="20"/>
+      <c r="AT33" s="20"/>
+      <c r="AU33" s="20"/>
+      <c r="AV33" s="20"/>
+      <c r="AW33" s="20"/>
+      <c r="AX33" s="20"/>
+    </row>
+    <row r="34" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>28</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="14">
+        <v>44858</v>
+      </c>
+      <c r="F34" s="14">
+        <v>44859</v>
+      </c>
+      <c r="G34" s="16">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="H34" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="20"/>
+      <c r="AE34" s="20"/>
+      <c r="AF34" s="20"/>
+      <c r="AG34" s="20"/>
+      <c r="AH34" s="20"/>
+      <c r="AI34" s="20"/>
+      <c r="AJ34" s="20"/>
+      <c r="AK34" s="20"/>
+      <c r="AL34" s="20"/>
+      <c r="AM34" s="20"/>
+      <c r="AN34" s="20"/>
+      <c r="AO34" s="20"/>
+      <c r="AP34" s="20"/>
+      <c r="AQ34" s="20"/>
+      <c r="AR34" s="20"/>
+      <c r="AS34" s="20"/>
+      <c r="AT34" s="20"/>
+      <c r="AU34" s="20"/>
+      <c r="AV34" s="20"/>
+      <c r="AW34" s="20"/>
+      <c r="AX34" s="20"/>
+    </row>
+    <row r="35" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <v>29</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="14">
+        <v>44848</v>
+      </c>
+      <c r="F35" s="14">
+        <v>44893</v>
+      </c>
+      <c r="G35" s="16">
+        <f t="shared" si="39"/>
+        <v>45</v>
+      </c>
+      <c r="H35" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="20"/>
+      <c r="AE35" s="20"/>
+      <c r="AF35" s="20"/>
+      <c r="AG35" s="20"/>
+      <c r="AH35" s="20"/>
+      <c r="AI35" s="20"/>
+      <c r="AJ35" s="20"/>
+      <c r="AK35" s="20"/>
+      <c r="AL35" s="20"/>
+      <c r="AM35" s="20"/>
+      <c r="AN35" s="20"/>
+      <c r="AO35" s="20"/>
+      <c r="AP35" s="20"/>
+      <c r="AQ35" s="20"/>
+      <c r="AR35" s="20"/>
+      <c r="AS35" s="20"/>
+      <c r="AT35" s="20"/>
+      <c r="AU35" s="20"/>
+      <c r="AV35" s="20"/>
+      <c r="AW35" s="20"/>
+      <c r="AX35" s="20"/>
+    </row>
+    <row r="36" spans="1:50" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>30</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="14">
+        <v>44865</v>
+      </c>
+      <c r="F36" s="14">
+        <v>44868</v>
+      </c>
+      <c r="G36" s="16">
+        <f t="shared" si="39"/>
+        <v>3</v>
+      </c>
+      <c r="H36" s="17">
+        <v>0</v>
+      </c>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="20"/>
+      <c r="AE36" s="20"/>
+      <c r="AF36" s="20"/>
+      <c r="AG36" s="20"/>
+      <c r="AH36" s="20"/>
+      <c r="AI36" s="20"/>
+      <c r="AJ36" s="20"/>
+      <c r="AK36" s="20"/>
+      <c r="AL36" s="20"/>
+      <c r="AM36" s="20"/>
+      <c r="AN36" s="20"/>
+      <c r="AO36" s="20"/>
+      <c r="AP36" s="20"/>
+      <c r="AQ36" s="20"/>
+      <c r="AR36" s="20"/>
+      <c r="AS36" s="20"/>
+      <c r="AT36" s="20"/>
+      <c r="AU36" s="20"/>
+      <c r="AV36" s="20"/>
+      <c r="AW36" s="20"/>
+      <c r="AX36" s="20"/>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A37" s="26">
+        <v>31</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="16">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="17"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="20"/>
+      <c r="AD37" s="20"/>
+      <c r="AE37" s="20"/>
+      <c r="AF37" s="20"/>
+      <c r="AG37" s="20"/>
+      <c r="AH37" s="20"/>
+      <c r="AI37" s="20"/>
+      <c r="AJ37" s="20"/>
+      <c r="AK37" s="20"/>
+      <c r="AL37" s="20"/>
+      <c r="AM37" s="20"/>
+      <c r="AN37" s="20"/>
+      <c r="AO37" s="20"/>
+      <c r="AP37" s="20"/>
+      <c r="AQ37" s="20"/>
+      <c r="AR37" s="20"/>
+      <c r="AS37" s="20"/>
+      <c r="AT37" s="20"/>
+      <c r="AU37" s="20"/>
+      <c r="AV37" s="20"/>
+      <c r="AW37" s="20"/>
+      <c r="AX37" s="20"/>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
+        <v>32</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="14">
+        <v>44872</v>
+      </c>
+      <c r="F38" s="14">
+        <v>44876</v>
+      </c>
+      <c r="G38" s="16">
+        <f>IF(E38=0,0,F38-E38)</f>
+        <v>4</v>
+      </c>
+      <c r="H38" s="17">
+        <v>0</v>
+      </c>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="20"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="20"/>
+      <c r="AE38" s="20"/>
+      <c r="AF38" s="20"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="20"/>
+      <c r="AI38" s="20"/>
+      <c r="AJ38" s="20"/>
+      <c r="AK38" s="20"/>
+      <c r="AL38" s="20"/>
+      <c r="AM38" s="20"/>
+      <c r="AN38" s="20"/>
+      <c r="AO38" s="20"/>
+      <c r="AP38" s="20"/>
+      <c r="AQ38" s="20"/>
+      <c r="AR38" s="20"/>
+      <c r="AS38" s="20"/>
+      <c r="AT38" s="20"/>
+      <c r="AU38" s="20"/>
+      <c r="AV38" s="20"/>
+      <c r="AW38" s="20"/>
+      <c r="AX38" s="20"/>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A39" s="26">
+        <v>33</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="14">
+        <v>44872</v>
+      </c>
+      <c r="F39" s="14">
+        <v>44873</v>
+      </c>
+      <c r="G39" s="16">
+        <f>IF(E39=0,0,F39-E39)</f>
+        <v>1</v>
+      </c>
+      <c r="H39" s="17">
+        <v>0</v>
+      </c>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="20"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="20"/>
+      <c r="AE39" s="20"/>
+      <c r="AF39" s="20"/>
+      <c r="AG39" s="20"/>
+      <c r="AH39" s="20"/>
+      <c r="AI39" s="20"/>
+      <c r="AJ39" s="20"/>
+      <c r="AK39" s="20"/>
+      <c r="AL39" s="20"/>
+      <c r="AM39" s="20"/>
+      <c r="AN39" s="20"/>
+      <c r="AO39" s="20"/>
+      <c r="AP39" s="20"/>
+      <c r="AQ39" s="20"/>
+      <c r="AR39" s="20"/>
+      <c r="AS39" s="20"/>
+      <c r="AT39" s="20"/>
+      <c r="AU39" s="20"/>
+      <c r="AV39" s="20"/>
+      <c r="AW39" s="20"/>
+      <c r="AX39" s="20"/>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A40" s="22">
+        <v>34</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="14">
+        <v>44874</v>
+      </c>
+      <c r="F40" s="14">
+        <v>44877</v>
+      </c>
+      <c r="G40" s="16">
+        <f>IF(E40=0,0,F40-E40)</f>
+        <v>3</v>
+      </c>
+      <c r="H40" s="17">
+        <v>0</v>
+      </c>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="20"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="20"/>
+      <c r="AE40" s="20"/>
+      <c r="AF40" s="20"/>
+      <c r="AG40" s="20"/>
+      <c r="AH40" s="20"/>
+      <c r="AI40" s="20"/>
+      <c r="AJ40" s="20"/>
+      <c r="AK40" s="20"/>
+      <c r="AL40" s="20"/>
+      <c r="AM40" s="20"/>
+      <c r="AN40" s="20"/>
+      <c r="AO40" s="20"/>
+      <c r="AP40" s="20"/>
+      <c r="AQ40" s="20"/>
+      <c r="AR40" s="20"/>
+      <c r="AS40" s="20"/>
+      <c r="AT40" s="20"/>
+      <c r="AU40" s="20"/>
+      <c r="AV40" s="20"/>
+      <c r="AW40" s="20"/>
+      <c r="AX40" s="20"/>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A41" s="26">
+        <v>35</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="14">
+        <v>44879</v>
+      </c>
+      <c r="F41" s="14">
+        <v>44890</v>
+      </c>
+      <c r="G41" s="16">
+        <f>IF(E41=0,0,F41-E41)</f>
+        <v>11</v>
+      </c>
+      <c r="H41" s="17">
+        <v>0</v>
+      </c>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="20"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="20"/>
+      <c r="AE41" s="20"/>
+      <c r="AF41" s="20"/>
+      <c r="AG41" s="20"/>
+      <c r="AH41" s="20"/>
+      <c r="AI41" s="20"/>
+      <c r="AJ41" s="20"/>
+      <c r="AK41" s="20"/>
+      <c r="AL41" s="20"/>
+      <c r="AM41" s="20"/>
+      <c r="AN41" s="20"/>
+      <c r="AO41" s="20"/>
+      <c r="AP41" s="20"/>
+      <c r="AQ41" s="20"/>
+      <c r="AR41" s="20"/>
+      <c r="AS41" s="20"/>
+      <c r="AT41" s="20"/>
+      <c r="AU41" s="20"/>
+      <c r="AV41" s="20"/>
+      <c r="AW41" s="20"/>
+      <c r="AX41" s="20"/>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A42" s="22">
+        <v>36</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="14">
+        <v>44872</v>
+      </c>
+      <c r="F42" s="14">
+        <v>44894</v>
+      </c>
+      <c r="G42" s="16">
+        <f>IF(E42=0,0,F42-E42)</f>
+        <v>22</v>
+      </c>
+      <c r="H42" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="20"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="20"/>
+      <c r="AB42" s="20"/>
+      <c r="AC42" s="20"/>
+      <c r="AD42" s="20"/>
+      <c r="AE42" s="20"/>
+      <c r="AF42" s="20"/>
+      <c r="AG42" s="20"/>
+      <c r="AH42" s="20"/>
+      <c r="AI42" s="20"/>
+      <c r="AJ42" s="20"/>
+      <c r="AK42" s="20"/>
+      <c r="AL42" s="20"/>
+      <c r="AM42" s="20"/>
+      <c r="AN42" s="20"/>
+      <c r="AO42" s="20"/>
+      <c r="AP42" s="20"/>
+      <c r="AQ42" s="20"/>
+      <c r="AR42" s="20"/>
+      <c r="AS42" s="20"/>
+      <c r="AT42" s="20"/>
+      <c r="AU42" s="20"/>
+      <c r="AV42" s="20"/>
+      <c r="AW42" s="20"/>
+      <c r="AX42" s="20"/>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A43" s="26">
+        <v>37</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="14">
+        <v>44872</v>
+      </c>
+      <c r="F43" s="14">
+        <v>44894</v>
+      </c>
+      <c r="G43" s="16">
+        <f>IF(E43=0,0,F43-E43)</f>
+        <v>22</v>
+      </c>
+      <c r="H43" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="20"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="20"/>
+      <c r="AB43" s="20"/>
+      <c r="AC43" s="20"/>
+      <c r="AD43" s="20"/>
+      <c r="AE43" s="20"/>
+      <c r="AF43" s="20"/>
+      <c r="AG43" s="20"/>
+      <c r="AH43" s="20"/>
+      <c r="AI43" s="20"/>
+      <c r="AJ43" s="20"/>
+      <c r="AK43" s="20"/>
+      <c r="AL43" s="20"/>
+      <c r="AM43" s="20"/>
+      <c r="AN43" s="20"/>
+      <c r="AO43" s="20"/>
+      <c r="AP43" s="20"/>
+      <c r="AQ43" s="20"/>
+      <c r="AR43" s="20"/>
+      <c r="AS43" s="20"/>
+      <c r="AT43" s="20"/>
+      <c r="AU43" s="20"/>
+      <c r="AV43" s="20"/>
+      <c r="AW43" s="20"/>
+      <c r="AX43" s="20"/>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A44" s="22">
+        <v>38</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="14">
+        <v>44872</v>
+      </c>
+      <c r="F44" s="14">
+        <v>44894</v>
+      </c>
+      <c r="G44" s="16">
+        <f>IF(E44=0,0,F44-E44)</f>
+        <v>22</v>
+      </c>
+      <c r="H44" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="20"/>
+      <c r="AD44" s="20"/>
+      <c r="AE44" s="20"/>
+      <c r="AF44" s="20"/>
+      <c r="AG44" s="20"/>
+      <c r="AH44" s="20"/>
+      <c r="AI44" s="20"/>
+      <c r="AJ44" s="20"/>
+      <c r="AK44" s="20"/>
+      <c r="AL44" s="20"/>
+      <c r="AM44" s="20"/>
+      <c r="AN44" s="20"/>
+      <c r="AO44" s="20"/>
+      <c r="AP44" s="20"/>
+      <c r="AQ44" s="20"/>
+      <c r="AR44" s="20"/>
+      <c r="AS44" s="20"/>
+      <c r="AT44" s="20"/>
+      <c r="AU44" s="20"/>
+      <c r="AV44" s="20"/>
+      <c r="AW44" s="20"/>
+      <c r="AX44" s="20"/>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A45" s="26">
+        <v>39</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="14">
+        <v>44872</v>
+      </c>
+      <c r="F45" s="14">
+        <v>44895</v>
+      </c>
+      <c r="G45" s="16">
+        <f>IF(E45=0,0,F45-E45)</f>
+        <v>23</v>
+      </c>
+      <c r="H45" s="17">
+        <v>0</v>
+      </c>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="20"/>
+      <c r="AD45" s="20"/>
+      <c r="AE45" s="20"/>
+      <c r="AF45" s="20"/>
+      <c r="AG45" s="20"/>
+      <c r="AH45" s="20"/>
+      <c r="AI45" s="20"/>
+      <c r="AJ45" s="20"/>
+      <c r="AK45" s="20"/>
+      <c r="AL45" s="20"/>
+      <c r="AM45" s="20"/>
+      <c r="AN45" s="20"/>
+      <c r="AO45" s="20"/>
+      <c r="AP45" s="20"/>
+      <c r="AQ45" s="20"/>
+      <c r="AR45" s="20"/>
+      <c r="AS45" s="20"/>
+      <c r="AT45" s="20"/>
+      <c r="AU45" s="20"/>
+      <c r="AV45" s="20"/>
+      <c r="AW45" s="20"/>
+      <c r="AX45" s="20"/>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A46" s="22">
+        <v>40</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="14">
+        <v>44839</v>
+      </c>
+      <c r="F46" s="14">
+        <v>44894</v>
+      </c>
+      <c r="G46" s="16">
+        <f t="shared" si="39"/>
+        <v>55</v>
+      </c>
+      <c r="H46" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="20"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="20"/>
+      <c r="AD46" s="20"/>
+      <c r="AE46" s="20"/>
+      <c r="AF46" s="20"/>
+      <c r="AG46" s="20"/>
+      <c r="AH46" s="20"/>
+      <c r="AI46" s="20"/>
+      <c r="AJ46" s="20"/>
+      <c r="AK46" s="20"/>
+      <c r="AL46" s="20"/>
+      <c r="AM46" s="20"/>
+      <c r="AN46" s="20"/>
+      <c r="AO46" s="20"/>
+      <c r="AP46" s="20"/>
+      <c r="AQ46" s="20"/>
+      <c r="AR46" s="20"/>
+      <c r="AS46" s="20"/>
+      <c r="AT46" s="20"/>
+      <c r="AU46" s="20"/>
+      <c r="AV46" s="20"/>
+      <c r="AW46" s="20"/>
+      <c r="AX46" s="20"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D15:D21">
-    <sortCondition ref="D15:D21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D14:D20">
+    <sortCondition ref="D14:D20"/>
   </sortState>
   <mergeCells count="10">
     <mergeCell ref="AK3:AQ3"/>
@@ -2654,8 +4397,8 @@
     <mergeCell ref="AD3:AJ3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="H6:H22">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="H6:H46">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -2668,37 +4411,49 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:AY7 I8:AY22">
-    <cfRule type="expression" dxfId="6" priority="7">
+  <conditionalFormatting sqref="J6:AY7 I8:AY46">
+    <cfRule type="expression" dxfId="6" priority="22">
       <formula>AND(I$4&gt;=$E6,I$4&lt;=$F6,$E6&lt;&gt;"",$F6&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J6:AX7 I8:AX22">
-    <cfRule type="expression" dxfId="5" priority="6">
+  <conditionalFormatting sqref="J6:AX7 I8:AX46">
+    <cfRule type="expression" dxfId="5" priority="21">
       <formula>AND($E6&lt;&gt;"",$F6&lt;&gt;"",I$4&lt;=Data_Progresso,I$4&gt;=$E6,I$4&lt;=$F6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="4" priority="25">
       <formula>AND(I$4&gt;=$E7,I$4&lt;=$F7,$E7&lt;&gt;"",$F7&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="expression" dxfId="3" priority="12">
+    <cfRule type="expression" dxfId="3" priority="27">
       <formula>AND($E7&lt;&gt;"",$F7&lt;&gt;"",I$4&lt;=Data_Progresso,I$4&gt;=$E7,I$4&lt;=$F7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:AX22">
-    <cfRule type="expression" dxfId="2" priority="4">
+  <conditionalFormatting sqref="I5:AX46">
+    <cfRule type="expression" dxfId="2" priority="19">
       <formula>I$4=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="1" priority="20">
       <formula>OR(WEEKDAY(I$4)=1,WEEKDAY(I$4)=7)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C22" xr:uid="{F49E630D-2D7B-4BDA-9F2B-EF57F849019C}">
-      <formula1>"Iniciado, Em andamento,Não iniciado,Em espera"</formula1>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6" xr:uid="{7216A688-64F0-4D4C-B58F-AA37B7BB6F44}">
+      <formula1>"Iniciado, Em andamento,Não iniciado,Em espera,Concluido"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6" xr:uid="{15C94836-0B81-4449-AE85-0DF65861BF16}">
+      <formula1>"Bruno, Evandro, Everton, Jorge, William, Equipe"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C46" xr:uid="{3AB135AF-7DE2-4309-914F-9509107C419D}">
+      <formula1>"Em andamento,Em espera,Concluido"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D37" xr:uid="{E7001924-B741-4D6D-A2B8-28035E507759}">
+      <formula1>" , Bruno, Evandro, Everton, Jorge, William, Equipe, Bruno/Jorge, Everton/Evandro,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38:D46" xr:uid="{7E3314E9-AAB5-4476-A460-164938136532}">
+      <formula1>" , Bruno, Bruno/Evandro, Evandro, Everton, Jorge, William, Equipe, Bruno/Jorge, Everton/Evandro,"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2749,10 +4504,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>H6:H22</xm:sqref>
+          <xm:sqref>H6:H46</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{8FEC2266-C960-432D-997D-CE6041329427}">
+          <x14:cfRule type="expression" priority="16" id="{8FEC2266-C960-432D-997D-CE6041329427}">
             <xm:f>MATCH(I$4,Entregas!$B:$B,0)</xm:f>
             <x14:dxf>
               <fill>
@@ -2762,7 +4517,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>I5:AX22</xm:sqref>
+          <xm:sqref>I5:AX46</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2789,7 +4544,7 @@
         <v>44816</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
@@ -2797,7 +4552,7 @@
         <v>44838</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -2805,7 +4560,7 @@
         <v>44869</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -2813,7 +4568,7 @@
         <v>44895</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -2821,7 +4576,7 @@
         <v>44903</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
